--- a/data/PTSD_data_dictionary.xlsx
+++ b/data/PTSD_data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28724"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/tma33_emory_edu/Documents/Emory/Brain Health Center/2024/Project ID 51 Boadie Dunlop/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhasdas/Documents/GitHub/BIOS-584/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{F5A089B7-0D75-9B43-B140-57211E66AF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E8B8B47-172D-47B2-A2F5-45231D03875E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0D87CD-12AF-BC4A-B1CA-20CA2C78BD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17980" xr2:uid="{8644D709-3871-254B-BEFC-98B046F21176}"/>
+    <workbookView xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="17980" xr2:uid="{8644D709-3871-254B-BEFC-98B046F21176}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -592,18 +592,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42534CA2-153E-0942-ABB7-25E19A34D7A3}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="170" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="37.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -630,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -638,7 +638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -649,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -657,7 +657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -665,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -673,7 +673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -681,7 +681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -689,7 +689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -697,7 +697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -705,7 +705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -713,7 +713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -721,7 +721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -732,7 +732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -740,7 +740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="15">
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -748,7 +748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -756,7 +756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -764,7 +764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
@@ -772,7 +772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -783,7 +783,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -791,7 +791,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -799,7 +799,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -807,7 +807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -815,10 +815,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
